--- a/data/trans_dic/P62A$invalidez-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -769,7 +770,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,78</t>
+          <t>0,0; 29,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -869,57 +870,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,13; 81,87</t>
+          <t>33,53; 82,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 62,11</t>
+          <t>13,39; 64,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,55</t>
+          <t>0,0; 66,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 59,43</t>
+          <t>7,25; 58,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 43,59</t>
+          <t>7,36; 45,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,96</t>
+          <t>0,0; 38,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,96</t>
+          <t>0,0; 52,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,37; 65,72</t>
+          <t>16,79; 65,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,06; 50,91</t>
+          <t>21,44; 52,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 43,13</t>
+          <t>10,88; 44,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,83</t>
+          <t>0,0; 40,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,7; 78,61</t>
+          <t>39,01; 79,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,86; 70,47</t>
+          <t>38,39; 69,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,38; 70,66</t>
+          <t>34,07; 70,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,66</t>
+          <t>0,0; 32,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,17; 73,77</t>
+          <t>30,93; 74,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,07; 64,7</t>
+          <t>31,9; 66,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 45,05</t>
+          <t>11,69; 44,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 27,28</t>
+          <t>5,75; 28,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,81; 71,91</t>
+          <t>42,59; 73,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,1; 62,56</t>
+          <t>38,44; 62,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,36; 53,01</t>
+          <t>27,35; 52,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 24,05</t>
+          <t>5,9; 22,85</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1145,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,42; 69,29</t>
+          <t>41,42; 69,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,9; 81,79</t>
+          <t>60,44; 82,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 54,93</t>
+          <t>31,08; 55,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,54; 45,39</t>
+          <t>17,46; 44,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,96; 48,75</t>
+          <t>23,06; 49,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,7; 48,23</t>
+          <t>20,51; 48,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 34,91</t>
+          <t>14,56; 34,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,76; 54,2</t>
+          <t>33,42; 54,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,21; 66,31</t>
+          <t>47,3; 65,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,51; 48,96</t>
+          <t>30,64; 48,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 15,93</t>
+          <t>5,91; 15,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,14; 22,07</t>
+          <t>11,51; 23,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,92; 34,39</t>
+          <t>19,23; 33,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,62; 21,18</t>
+          <t>10,99; 21,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,55</t>
+          <t>1,1; 6,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 27,23</t>
+          <t>9,94; 27,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,52; 36,06</t>
+          <t>17,26; 36,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,99; 26,67</t>
+          <t>11,73; 27,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,78; 40,44</t>
+          <t>26,35; 40,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 21,14</t>
+          <t>12,33; 21,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,98; 32,36</t>
+          <t>20,84; 31,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 21,25</t>
+          <t>12,1; 21,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,28</t>
+          <t>11,53; 18,19</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1430,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,74</t>
+          <t>0,36; 3,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,07</t>
+          <t>0,32; 2,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,73</t>
+          <t>1,0; 6,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,68</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,15</t>
+          <t>0,47; 4,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 22,91</t>
+          <t>3,4; 23,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,65</t>
+          <t>0,41; 2,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,06</t>
+          <t>0,57; 2,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,07</t>
+          <t>0,35; 2,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,57</t>
+          <t>2,89; 10,46</t>
         </is>
       </c>
     </row>
@@ -1569,12 +1570,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,42 +1585,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,59</t>
+          <t>0,43; 3,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,07</t>
+          <t>1,09; 4,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,63</t>
+          <t>0,43; 4,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,53; 62,55</t>
+          <t>54,27; 62,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,24; 1,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,93</t>
+          <t>0,78; 2,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,45</t>
+          <t>0,33; 2,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,07; 36,16</t>
+          <t>30,03; 35,7</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,23</t>
+          <t>7,72; 12,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,06</t>
+          <t>13,9; 19,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,89</t>
+          <t>7,78; 12,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,32</t>
+          <t>0,72; 2,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,57</t>
+          <t>6,0; 10,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,36; 13,16</t>
+          <t>8,39; 13,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,63</t>
+          <t>5,35; 9,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,63; 40,22</t>
+          <t>15,15; 40,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,56; 10,83</t>
+          <t>7,73; 10,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11,99; 15,68</t>
+          <t>11,9; 15,59</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,02</t>
+          <t>7,32; 10,31</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,43; 20,21</t>
+          <t>11,43; 20,05</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de invalidez</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3268</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3268</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 715</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2957</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1625</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1535</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 762</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1813</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1666</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1408; 3268</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1091</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4071</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1787</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5258</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3315</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2831</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4799</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6146</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14677</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6888</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2675</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>916; 5226</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5616; 13751</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1934; 9248</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5430</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>781; 6335</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1791; 11002</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4949</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6310</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2688; 10537</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8809; 21374</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2970; 12010</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8248</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15156</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25596</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15373</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2080</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10259</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18952</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25415</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44548</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22473</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5556</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9779; 19916</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17937; 32640</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10061; 20894</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6516</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5966; 14391</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12654; 26212</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3350; 12741</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1486; 7246</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18889; 32451</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33213; 54270</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15910; 30781</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2700; 10446</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25310</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54957</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33939</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12285</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19349</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15797</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9295</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37595</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>74306</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>49736</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9295</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18970; 31613</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>45827; 62284</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24494; 43654</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1934</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7168; 18475</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12601; 27027</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9709; 22934</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5815; 13819</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29024; 46977</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>61713; 85056</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38657; 61091</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5588; 14828</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27377</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46283</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31144</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5356</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13778</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24660</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20771</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35002</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>41155</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>70943</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>51914</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>40358</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19437; 38843</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33348; 58736</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22007; 43350</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1871; 11032</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7948; 21582</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16528; 34572</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13015; 30166</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27978; 42967</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30676; 53555</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>56094; 85748</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>37657; 66973</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>31875; 50273</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2571</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4929</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3074</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4086</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>49291</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5863</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7316</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>51862</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4701</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1093; 11959</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5336</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>955; 6090</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1770; 11128</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8169</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1091; 9905</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14674; 99841</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1894; 12670</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3032; 15513</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1957; 11618</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21114; 76466</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3329</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>7574</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>186482</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3329</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5754</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>186482</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1825</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5162</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6186</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1183</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1062; 9067</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3235; 14331</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1258; 13122</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>173136; 198158</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1067; 8924</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4244; 16140</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1794; 12849</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>170044; 202111</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>72092</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>142949</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>88308</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>11148</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>47411</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>78409</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>53603</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>288348</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>119503</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>221358</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>141911</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>299495</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>56950; 90081</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>121069; 167919</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>70139; 109097</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>5744; 18124</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>34552; 60976</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>62587; 97897</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>39438; 68248</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>142082; 377571</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>101582; 142040</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>192494; 252181</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>119920; 168861</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>198735; 348746</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>